--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -122,14 +122,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -137,7 +137,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,17 +1073,17 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>37</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>18.633333333333333</v>
+        <v>25.433333333333334</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>184.36666666666667</v>
+        <v>191.16666666666669</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>36077.808333333334</v>
+        <v>48531.10833333333</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>184.36666666666667</v>
+        <v>191.16666666666669</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>325665.02500000002</v>
+        <v>338118.32500000001</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -613,7 +613,7 @@
         <v>1310</v>
       </c>
       <c r="N3" s="6">
-        <f>K3*M3*1.3+(E3+G3)*M3*0.25+(H3+J3)*M3*0.2</f>
+        <f>K3*M3*1.3+(E3+G3)*M3*0.25+(H3+J3)*M3*0.05</f>
         <v>29632.199999999997</v>
       </c>
       <c r="P3" s="6"/>
@@ -664,7 +664,7 @@
         <v>1310</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N14" si="4">K4*M4*1.3+(E4+G4)*M4*0.25+(H4+J4)*M4*0.2</f>
+        <f t="shared" ref="N4:N14" si="4">K4*M4*1.3+(E4+G4)*M4*0.25+(H4+J4)*M4*0.05</f>
         <v>51004.85</v>
       </c>
     </row>
@@ -1073,14 +1073,14 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>25.433333333333334</v>
+        <v>29.783333333333335</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>191.16666666666669</v>
+        <v>195.51666666666668</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>48531.10833333333</v>
+        <v>54267.983333333344</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>191.16666666666669</v>
+        <v>195.51666666666668</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>338118.32500000001</v>
+        <v>343855.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,24 +1073,24 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.68333333333333335</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.6166666666666667</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="H13">
         <v>9</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>29.783333333333335</v>
+        <v>36.68333333333333</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>195.51666666666668</v>
+        <v>202.41666666666669</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>54267.983333333344</v>
+        <v>66956.466666666674</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>195.51666666666668</v>
+        <v>202.41666666666669</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>343855.2</v>
+        <v>356543.68333333335</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P156"/>
+  <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K54" si="3">B4+D4</f>
+        <f t="shared" ref="K4:K55" si="3">B4+D4</f>
         <v>29.95</v>
       </c>
       <c r="L4" s="1">
@@ -664,7 +664,7 @@
         <v>1310</v>
       </c>
       <c r="N4" s="6">
-        <f t="shared" ref="N4:N14" si="4">K4*M4*1.3+(E4+G4)*M4*0.25+(H4+J4)*M4*0.05</f>
+        <f t="shared" ref="N4:N13" si="4">K4*M4*1.3+(E4+G4)*M4*0.25+(H4+J4)*M4*0.05</f>
         <v>51004.85</v>
       </c>
     </row>
@@ -1073,14 +1073,14 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.68333333333333335</v>
+        <v>0.35</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>36.68333333333333</v>
+        <v>44.35</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>202.41666666666669</v>
+        <v>210.08333333333334</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>66956.466666666674</v>
+        <v>80610.800000000017</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,13 +1140,13 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>202.41666666666669</v>
+        <v>210.08333333333334</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="4"/>
+        <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
         <v>0</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>356543.68333333335</v>
+        <v>370198.01666666672</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -1195,8 +1195,11 @@
         <f>SUM(B$17:B17,D$17:D17)</f>
         <v>0</v>
       </c>
+      <c r="M17">
+        <v>1370</v>
+      </c>
       <c r="N17" s="6">
-        <f t="shared" ref="N17:N28" si="9">(D17+B17)*1704</f>
+        <f>K17*M17*1.3+(E17+G17)*M17*0.25+(H17+J17)*M17*0.05</f>
         <v>0</v>
       </c>
     </row>
@@ -1224,8 +1227,11 @@
         <f>SUM(B$17:B18,D$17:D18)</f>
         <v>0</v>
       </c>
+      <c r="M18">
+        <v>1370</v>
+      </c>
       <c r="N18" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="N18:N28" si="9">K18*M18*1.3+(E18+G18)*M18*0.25+(H18+J18)*M18*0.05</f>
         <v>0</v>
       </c>
     </row>
@@ -1253,6 +1259,9 @@
         <f>SUM(B$17:B19,D$17:D19)</f>
         <v>0</v>
       </c>
+      <c r="M19">
+        <v>1370</v>
+      </c>
       <c r="N19" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1282,6 +1291,9 @@
         <f>SUM(B$17:B20,D$17:D20)</f>
         <v>0</v>
       </c>
+      <c r="M20">
+        <v>1370</v>
+      </c>
       <c r="N20" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1311,6 +1323,9 @@
         <f>SUM(B$17:B21,D$17:D21)</f>
         <v>0</v>
       </c>
+      <c r="M21">
+        <v>1370</v>
+      </c>
       <c r="N21" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1340,6 +1355,9 @@
         <f>SUM(B$17:B22,D$17:D22)</f>
         <v>0</v>
       </c>
+      <c r="M22">
+        <v>1370</v>
+      </c>
       <c r="N22" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1369,6 +1387,9 @@
         <f>SUM(B$17:B23,D$17:D23)</f>
         <v>0</v>
       </c>
+      <c r="M23">
+        <v>1370</v>
+      </c>
       <c r="N23" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1398,6 +1419,9 @@
         <f>SUM(B$17:B24,D$17:D24)</f>
         <v>0</v>
       </c>
+      <c r="M24">
+        <v>1370</v>
+      </c>
       <c r="N24" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1427,6 +1451,9 @@
         <f>SUM(B$17:B25,D$17:D25)</f>
         <v>0</v>
       </c>
+      <c r="M25">
+        <v>1370</v>
+      </c>
       <c r="N25" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1456,6 +1483,9 @@
         <f>SUM(B$17:B26,D$17:D26)</f>
         <v>0</v>
       </c>
+      <c r="M26">
+        <v>1370</v>
+      </c>
       <c r="N26" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1485,6 +1515,9 @@
         <f>SUM(B$17:B27,D$17:D27)</f>
         <v>0</v>
       </c>
+      <c r="M27">
+        <v>1370</v>
+      </c>
       <c r="N27" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -1513,6 +1546,9 @@
       <c r="L28" s="1">
         <f>SUM(B$17:B28,D$17:D28)</f>
         <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1370</v>
       </c>
       <c r="N28" s="6">
         <f t="shared" si="9"/>
@@ -1526,51 +1562,34 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="N29" s="6"/>
+      <c r="N29" s="6">
+        <f>SUM(N17:N28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>43009</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" ref="D30:D41" si="10">C30/60</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="1">
-        <f t="shared" ref="G30:G41" si="11">F30/60</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" ref="J30:J41" si="12">I30/60</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
-        <f>SUM(B$30:B30,D$30:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <f t="shared" ref="N30:N41" si="13">(D30+B30)*1704</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="D30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D31:D42" si="10">C31/60</f>
         <v>0</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="G31:G42" si="11">F31/60</f>
         <v>0</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="J31:J42" si="12">I31/60</f>
         <v>0</v>
       </c>
       <c r="K31" s="1">
@@ -1578,17 +1597,17 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <f>SUM(B$30:B31,D$30:D31)</f>
+        <f>SUM(B$31:B31,D$31:D31)</f>
         <v>0</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N31:N42" si="13">(D31+B31)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="10"/>
@@ -1607,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="1">
-        <f>SUM(B$30:B32,D$30:D32)</f>
+        <f>SUM(B$31:B32,D$31:D32)</f>
         <v>0</v>
       </c>
       <c r="N32" s="6">
@@ -1617,7 +1636,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="10"/>
@@ -1636,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="1">
-        <f>SUM(B$30:B33,D$30:D33)</f>
+        <f>SUM(B$31:B33,D$31:D33)</f>
         <v>0</v>
       </c>
       <c r="N33" s="6">
@@ -1646,7 +1665,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="10"/>
@@ -1665,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="1">
-        <f>SUM(B$30:B34,D$30:D34)</f>
+        <f>SUM(B$31:B34,D$31:D34)</f>
         <v>0</v>
       </c>
       <c r="N34" s="6">
@@ -1675,7 +1694,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="10"/>
@@ -1694,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <f>SUM(B$30:B35,D$30:D35)</f>
+        <f>SUM(B$31:B35,D$31:D35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="6">
@@ -1704,7 +1723,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="10"/>
@@ -1723,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="1">
-        <f>SUM(B$30:B36,D$30:D36)</f>
+        <f>SUM(B$31:B36,D$31:D36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="6">
@@ -1733,7 +1752,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
@@ -1752,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <f>SUM(B$30:B37,D$30:D37)</f>
+        <f>SUM(B$31:B37,D$31:D37)</f>
         <v>0</v>
       </c>
       <c r="N37" s="6">
@@ -1762,7 +1781,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
@@ -1781,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <f>SUM(B$30:B38,D$30:D38)</f>
+        <f>SUM(B$31:B38,D$31:D38)</f>
         <v>0</v>
       </c>
       <c r="N38" s="6">
@@ -1791,7 +1810,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="10"/>
@@ -1810,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <f>SUM(B$30:B39,D$30:D39)</f>
+        <f>SUM(B$31:B39,D$31:D39)</f>
         <v>0</v>
       </c>
       <c r="N39" s="6">
@@ -1820,7 +1839,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="10"/>
@@ -1839,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f>SUM(B$30:B40,D$30:D40)</f>
+        <f>SUM(B$31:B40,D$31:D40)</f>
         <v>0</v>
       </c>
       <c r="N40" s="6">
@@ -1849,7 +1868,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="10"/>
@@ -1868,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <f>SUM(B$30:B41,D$30:D41)</f>
+        <f>SUM(B$31:B41,D$31:D41)</f>
         <v>0</v>
       </c>
       <c r="N41" s="6">
@@ -1877,57 +1896,57 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="D42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="N42" s="6"/>
+      <c r="A42" s="3">
+        <v>43344</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(B$31:B42,D$31:D42)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>43374</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" ref="D43:D54" si="14">C43/60</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" ref="G43:G54" si="15">F43/60</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" ref="J43:J54" si="16">I43/60</f>
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <f>SUM(B$43:B43,D$43:D43)</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="6">
-        <f t="shared" ref="N43:N54" si="17">(D43+B43)*1704</f>
-        <v>0</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="D43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D44:D55" si="14">C44/60</f>
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G44:G55" si="15">F44/60</f>
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="J44:J55" si="16">I44/60</f>
         <v>0</v>
       </c>
       <c r="K44" s="1">
@@ -1935,17 +1954,17 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <f>SUM(B$43:B44,D$43:D44)</f>
+        <f>SUM(B$44:B44,D$44:D44)</f>
         <v>0</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="N44:N55" si="17">(D44+B44)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="14"/>
@@ -1964,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <f>SUM(B$43:B45,D$43:D45)</f>
+        <f>SUM(B$44:B45,D$44:D45)</f>
         <v>0</v>
       </c>
       <c r="N45" s="6">
@@ -1974,7 +1993,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="14"/>
@@ -1993,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <f>SUM(B$43:B46,D$43:D46)</f>
+        <f>SUM(B$44:B46,D$44:D46)</f>
         <v>0</v>
       </c>
       <c r="N46" s="6">
@@ -2003,7 +2022,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="14"/>
@@ -2022,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <f>SUM(B$43:B47,D$43:D47)</f>
+        <f>SUM(B$44:B47,D$44:D47)</f>
         <v>0</v>
       </c>
       <c r="N47" s="6">
@@ -2032,7 +2051,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="14"/>
@@ -2051,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <f>SUM(B$43:B48,D$43:D48)</f>
+        <f>SUM(B$44:B48,D$44:D48)</f>
         <v>0</v>
       </c>
       <c r="N48" s="6">
@@ -2061,7 +2080,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="14"/>
@@ -2080,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <f>SUM(B$43:B49,D$43:D49)</f>
+        <f>SUM(B$44:B49,D$44:D49)</f>
         <v>0</v>
       </c>
       <c r="N49" s="6">
@@ -2090,7 +2109,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="14"/>
@@ -2109,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <f>SUM(B$43:B50,D$43:D50)</f>
+        <f>SUM(B$44:B50,D$44:D50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="6">
@@ -2119,7 +2138,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="14"/>
@@ -2138,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <f>SUM(B$43:B51,D$43:D51)</f>
+        <f>SUM(B$44:B51,D$44:D51)</f>
         <v>0</v>
       </c>
       <c r="N51" s="6">
@@ -2148,7 +2167,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="14"/>
@@ -2167,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <f>SUM(B$43:B52,D$43:D52)</f>
+        <f>SUM(B$44:B52,D$44:D52)</f>
         <v>0</v>
       </c>
       <c r="N52" s="6">
@@ -2177,7 +2196,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="14"/>
@@ -2196,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="L53" s="1">
-        <f>SUM(B$43:B53,D$43:D53)</f>
+        <f>SUM(B$44:B53,D$44:D53)</f>
         <v>0</v>
       </c>
       <c r="N53" s="6">
@@ -2206,7 +2225,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="14"/>
@@ -2225,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="1">
-        <f>SUM(B$43:B54,D$43:D54)</f>
+        <f>SUM(B$44:B54,D$44:D54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="6">
@@ -2234,75 +2253,75 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="3"/>
-      <c r="D55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="N55" s="6"/>
+      <c r="A55" s="3">
+        <v>43709</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <f>SUM(B$44:B55,D$44:D55)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
-        <v>43739</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" ref="D56:D87" si="18">C56/60</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="1">
-        <f t="shared" ref="G56:G119" si="19">F56/60</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="1">
-        <f t="shared" ref="J56:J119" si="20">I56/60</f>
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <f t="shared" ref="K56:K58" si="21">E56+G56</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <f>SUM(B$56:B56,D$56:D56)</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="6">
-        <f t="shared" ref="N56:N87" si="22">(D56+B56)*1704</f>
-        <v>0</v>
-      </c>
+      <c r="A56" s="3"/>
+      <c r="D56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D57:D88" si="18">C57/60</f>
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="G57:G120" si="19">F57/60</f>
         <v>0</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="J57:J120" si="20">I57/60</f>
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="K57:K59" si="21">E57+G57</f>
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <f>SUM(B$56:B57,D$56:D57)</f>
+        <f>SUM(B$57:B57,D$57:D57)</f>
         <v>0</v>
       </c>
       <c r="N57" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N57:N88" si="22">(D57+B57)*1704</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" si="18"/>
@@ -2321,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="1">
-        <f>SUM(B$56:B58,D$56:D58)</f>
+        <f>SUM(B$57:B58,D$57:D58)</f>
         <v>0</v>
       </c>
       <c r="N58" s="6">
@@ -2330,6 +2349,9 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>43800</v>
+      </c>
       <c r="D59" s="1">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -2342,9 +2364,12 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K59" s="1"/>
+      <c r="K59" s="1">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="L59" s="1">
-        <f>SUM(B$56:B59,D$56:D59)</f>
+        <f>SUM(B$57:B59,D$57:D59)</f>
         <v>0</v>
       </c>
       <c r="N59" s="6">
@@ -2367,7 +2392,7 @@
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1">
-        <f>SUM(B$56:B60,D$56:D60)</f>
+        <f>SUM(B$57:B60,D$57:D60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="6">
@@ -2390,7 +2415,7 @@
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1">
-        <f>SUM(B$56:B61,D$56:D61)</f>
+        <f>SUM(B$57:B61,D$57:D61)</f>
         <v>0</v>
       </c>
       <c r="N61" s="6">
@@ -2413,7 +2438,7 @@
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1">
-        <f>SUM(B$56:B62,D$56:D62)</f>
+        <f>SUM(B$57:B62,D$57:D62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="6">
@@ -2436,7 +2461,7 @@
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1">
-        <f>SUM(B$56:B63,D$56:D63)</f>
+        <f>SUM(B$57:B63,D$57:D63)</f>
         <v>0</v>
       </c>
       <c r="N63" s="6">
@@ -2459,7 +2484,7 @@
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1">
-        <f>SUM(B$56:B64,D$56:D64)</f>
+        <f>SUM(B$57:B64,D$57:D64)</f>
         <v>0</v>
       </c>
       <c r="N64" s="6">
@@ -2482,7 +2507,7 @@
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1">
-        <f>SUM(B$56:B65,D$56:D65)</f>
+        <f>SUM(B$57:B65,D$57:D65)</f>
         <v>0</v>
       </c>
       <c r="N65" s="6">
@@ -2505,7 +2530,7 @@
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1">
-        <f>SUM(B$56:B66,D$56:D66)</f>
+        <f>SUM(B$57:B66,D$57:D66)</f>
         <v>0</v>
       </c>
       <c r="N66" s="6">
@@ -2528,7 +2553,7 @@
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1">
-        <f>SUM(B$56:B67,D$56:D67)</f>
+        <f>SUM(B$57:B67,D$57:D67)</f>
         <v>0</v>
       </c>
       <c r="N67" s="6">
@@ -2551,7 +2576,7 @@
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1">
-        <f>SUM(B$56:B68,D$56:D68)</f>
+        <f>SUM(B$57:B68,D$57:D68)</f>
         <v>0</v>
       </c>
       <c r="N68" s="6">
@@ -2574,7 +2599,7 @@
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1">
-        <f>SUM(B$56:B69,D$56:D69)</f>
+        <f>SUM(B$57:B69,D$57:D69)</f>
         <v>0</v>
       </c>
       <c r="N69" s="6">
@@ -2597,7 +2622,7 @@
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="1">
-        <f>SUM(B$56:B70,D$56:D70)</f>
+        <f>SUM(B$57:B70,D$57:D70)</f>
         <v>0</v>
       </c>
       <c r="N70" s="6">
@@ -2620,7 +2645,7 @@
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1">
-        <f>SUM(B$56:B71,D$56:D71)</f>
+        <f>SUM(B$57:B71,D$57:D71)</f>
         <v>0</v>
       </c>
       <c r="N71" s="6">
@@ -2643,7 +2668,7 @@
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1">
-        <f>SUM(B$56:B72,D$56:D72)</f>
+        <f>SUM(B$57:B72,D$57:D72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="6">
@@ -2666,7 +2691,7 @@
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1">
-        <f>SUM(B$56:B73,D$56:D73)</f>
+        <f>SUM(B$57:B73,D$57:D73)</f>
         <v>0</v>
       </c>
       <c r="N73" s="6">
@@ -2689,7 +2714,7 @@
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1">
-        <f>SUM(B$56:B74,D$56:D74)</f>
+        <f>SUM(B$57:B74,D$57:D74)</f>
         <v>0</v>
       </c>
       <c r="N74" s="6">
@@ -2712,7 +2737,7 @@
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1">
-        <f>SUM(B$56:B75,D$56:D75)</f>
+        <f>SUM(B$57:B75,D$57:D75)</f>
         <v>0</v>
       </c>
       <c r="N75" s="6">
@@ -2735,7 +2760,7 @@
       </c>
       <c r="K76" s="1"/>
       <c r="L76" s="1">
-        <f>SUM(B$56:B76,D$56:D76)</f>
+        <f>SUM(B$57:B76,D$57:D76)</f>
         <v>0</v>
       </c>
       <c r="N76" s="6">
@@ -2758,7 +2783,7 @@
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1">
-        <f>SUM(B$56:B77,D$56:D77)</f>
+        <f>SUM(B$57:B77,D$57:D77)</f>
         <v>0</v>
       </c>
       <c r="N77" s="6">
@@ -2781,7 +2806,7 @@
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1">
-        <f>SUM(B$56:B78,D$56:D78)</f>
+        <f>SUM(B$57:B78,D$57:D78)</f>
         <v>0</v>
       </c>
       <c r="N78" s="6">
@@ -2804,7 +2829,7 @@
       </c>
       <c r="K79" s="1"/>
       <c r="L79" s="1">
-        <f>SUM(B$56:B79,D$56:D79)</f>
+        <f>SUM(B$57:B79,D$57:D79)</f>
         <v>0</v>
       </c>
       <c r="N79" s="6">
@@ -2827,7 +2852,7 @@
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1">
-        <f>SUM(B$56:B80,D$56:D80)</f>
+        <f>SUM(B$57:B80,D$57:D80)</f>
         <v>0</v>
       </c>
       <c r="N80" s="6">
@@ -2850,7 +2875,7 @@
       </c>
       <c r="K81" s="1"/>
       <c r="L81" s="1">
-        <f>SUM(B$56:B81,D$56:D81)</f>
+        <f>SUM(B$57:B81,D$57:D81)</f>
         <v>0</v>
       </c>
       <c r="N81" s="6">
@@ -2873,7 +2898,7 @@
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1">
-        <f>SUM(B$56:B82,D$56:D82)</f>
+        <f>SUM(B$57:B82,D$57:D82)</f>
         <v>0</v>
       </c>
       <c r="N82" s="6">
@@ -2896,7 +2921,7 @@
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1">
-        <f>SUM(B$56:B83,D$56:D83)</f>
+        <f>SUM(B$57:B83,D$57:D83)</f>
         <v>0</v>
       </c>
       <c r="N83" s="6">
@@ -2919,7 +2944,7 @@
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1">
-        <f>SUM(B$56:B84,D$56:D84)</f>
+        <f>SUM(B$57:B84,D$57:D84)</f>
         <v>0</v>
       </c>
       <c r="N84" s="6">
@@ -2942,7 +2967,7 @@
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1">
-        <f>SUM(B$56:B85,D$56:D85)</f>
+        <f>SUM(B$57:B85,D$57:D85)</f>
         <v>0</v>
       </c>
       <c r="N85" s="6">
@@ -2965,7 +2990,7 @@
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1">
-        <f>SUM(B$56:B86,D$56:D86)</f>
+        <f>SUM(B$57:B86,D$57:D86)</f>
         <v>0</v>
       </c>
       <c r="N86" s="6">
@@ -2988,7 +3013,7 @@
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1">
-        <f>SUM(B$56:B87,D$56:D87)</f>
+        <f>SUM(B$57:B87,D$57:D87)</f>
         <v>0</v>
       </c>
       <c r="N87" s="6">
@@ -2998,7 +3023,7 @@
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D88" s="1">
-        <f t="shared" ref="D88:D119" si="23">C88/60</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G88" s="1">
@@ -3011,17 +3036,17 @@
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1">
-        <f>SUM(B$56:B88,D$56:D88)</f>
+        <f>SUM(B$57:B88,D$57:D88)</f>
         <v>0</v>
       </c>
       <c r="N88" s="6">
-        <f t="shared" ref="N88:N119" si="24">(D88+B88)*1704</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D89" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="D89:D120" si="23">C89/60</f>
         <v>0</v>
       </c>
       <c r="G89" s="1">
@@ -3034,11 +3059,11 @@
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1">
-        <f>SUM(B$56:B89,D$56:D89)</f>
+        <f>SUM(B$57:B89,D$57:D89)</f>
         <v>0</v>
       </c>
       <c r="N89" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="N89:N120" si="24">(D89+B89)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -3057,7 +3082,7 @@
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1">
-        <f>SUM(B$56:B90,D$56:D90)</f>
+        <f>SUM(B$57:B90,D$57:D90)</f>
         <v>0</v>
       </c>
       <c r="N90" s="6">
@@ -3080,7 +3105,7 @@
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1">
-        <f>SUM(B$56:B91,D$56:D91)</f>
+        <f>SUM(B$57:B91,D$57:D91)</f>
         <v>0</v>
       </c>
       <c r="N91" s="6">
@@ -3103,7 +3128,7 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1">
-        <f>SUM(B$56:B92,D$56:D92)</f>
+        <f>SUM(B$57:B92,D$57:D92)</f>
         <v>0</v>
       </c>
       <c r="N92" s="6">
@@ -3126,7 +3151,7 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1">
-        <f>SUM(B$56:B93,D$56:D93)</f>
+        <f>SUM(B$57:B93,D$57:D93)</f>
         <v>0</v>
       </c>
       <c r="N93" s="6">
@@ -3149,7 +3174,7 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1">
-        <f>SUM(B$56:B94,D$56:D94)</f>
+        <f>SUM(B$57:B94,D$57:D94)</f>
         <v>0</v>
       </c>
       <c r="N94" s="6">
@@ -3172,7 +3197,7 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1">
-        <f>SUM(B$56:B95,D$56:D95)</f>
+        <f>SUM(B$57:B95,D$57:D95)</f>
         <v>0</v>
       </c>
       <c r="N95" s="6">
@@ -3195,7 +3220,7 @@
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1">
-        <f>SUM(B$56:B96,D$56:D96)</f>
+        <f>SUM(B$57:B96,D$57:D96)</f>
         <v>0</v>
       </c>
       <c r="N96" s="6">
@@ -3218,7 +3243,7 @@
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="1">
-        <f>SUM(B$56:B97,D$56:D97)</f>
+        <f>SUM(B$57:B97,D$57:D97)</f>
         <v>0</v>
       </c>
       <c r="N97" s="6">
@@ -3241,7 +3266,7 @@
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="1">
-        <f>SUM(B$56:B98,D$56:D98)</f>
+        <f>SUM(B$57:B98,D$57:D98)</f>
         <v>0</v>
       </c>
       <c r="N98" s="6">
@@ -3264,7 +3289,7 @@
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="1">
-        <f>SUM(B$56:B99,D$56:D99)</f>
+        <f>SUM(B$57:B99,D$57:D99)</f>
         <v>0</v>
       </c>
       <c r="N99" s="6">
@@ -3287,7 +3312,7 @@
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1">
-        <f>SUM(B$56:B100,D$56:D100)</f>
+        <f>SUM(B$57:B100,D$57:D100)</f>
         <v>0</v>
       </c>
       <c r="N100" s="6">
@@ -3310,7 +3335,7 @@
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1">
-        <f>SUM(B$56:B101,D$56:D101)</f>
+        <f>SUM(B$57:B101,D$57:D101)</f>
         <v>0</v>
       </c>
       <c r="N101" s="6">
@@ -3333,7 +3358,7 @@
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1">
-        <f>SUM(B$56:B102,D$56:D102)</f>
+        <f>SUM(B$57:B102,D$57:D102)</f>
         <v>0</v>
       </c>
       <c r="N102" s="6">
@@ -3356,7 +3381,7 @@
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1">
-        <f>SUM(B$56:B103,D$56:D103)</f>
+        <f>SUM(B$57:B103,D$57:D103)</f>
         <v>0</v>
       </c>
       <c r="N103" s="6">
@@ -3379,7 +3404,7 @@
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1">
-        <f>SUM(B$56:B104,D$56:D104)</f>
+        <f>SUM(B$57:B104,D$57:D104)</f>
         <v>0</v>
       </c>
       <c r="N104" s="6">
@@ -3402,7 +3427,7 @@
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1">
-        <f>SUM(B$56:B105,D$56:D105)</f>
+        <f>SUM(B$57:B105,D$57:D105)</f>
         <v>0</v>
       </c>
       <c r="N105" s="6">
@@ -3425,7 +3450,7 @@
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1">
-        <f>SUM(B$56:B106,D$56:D106)</f>
+        <f>SUM(B$57:B106,D$57:D106)</f>
         <v>0</v>
       </c>
       <c r="N106" s="6">
@@ -3448,7 +3473,7 @@
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="1">
-        <f>SUM(B$56:B107,D$56:D107)</f>
+        <f>SUM(B$57:B107,D$57:D107)</f>
         <v>0</v>
       </c>
       <c r="N107" s="6">
@@ -3471,7 +3496,7 @@
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1">
-        <f>SUM(B$56:B108,D$56:D108)</f>
+        <f>SUM(B$57:B108,D$57:D108)</f>
         <v>0</v>
       </c>
       <c r="N108" s="6">
@@ -3494,7 +3519,7 @@
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1">
-        <f>SUM(B$56:B109,D$56:D109)</f>
+        <f>SUM(B$57:B109,D$57:D109)</f>
         <v>0</v>
       </c>
       <c r="N109" s="6">
@@ -3517,7 +3542,7 @@
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1">
-        <f>SUM(B$56:B110,D$56:D110)</f>
+        <f>SUM(B$57:B110,D$57:D110)</f>
         <v>0</v>
       </c>
       <c r="N110" s="6">
@@ -3540,7 +3565,7 @@
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1">
-        <f>SUM(B$56:B111,D$56:D111)</f>
+        <f>SUM(B$57:B111,D$57:D111)</f>
         <v>0</v>
       </c>
       <c r="N111" s="6">
@@ -3563,7 +3588,7 @@
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1">
-        <f>SUM(B$56:B112,D$56:D112)</f>
+        <f>SUM(B$57:B112,D$57:D112)</f>
         <v>0</v>
       </c>
       <c r="N112" s="6">
@@ -3572,16 +3597,21 @@
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.15">
-      <c r="D113">
+      <c r="D113" s="1">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="G113">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="20"/>
+      <c r="G113" s="1">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1">
+        <f>SUM(B$57:B113,D$57:D113)</f>
         <v>0</v>
       </c>
       <c r="N113" s="6">
@@ -3699,37 +3729,37 @@
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D120">
-        <f t="shared" ref="D120:D151" si="25">C120/60</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G120">
-        <f t="shared" ref="G120:G156" si="26">F120/60</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J120">
-        <f t="shared" ref="J120:J156" si="27">I120/60</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N120" s="6">
-        <f t="shared" ref="N120:N132" si="28">(D120+B120)*1704</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D121">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="D121:D152" si="25">C121/60</f>
         <v>0</v>
       </c>
       <c r="G121">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="G121:G157" si="26">F121/60</f>
         <v>0</v>
       </c>
       <c r="J121">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="J121:J157" si="27">I121/60</f>
         <v>0</v>
       </c>
       <c r="N121" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="N121:N133" si="28">(D121+B121)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -3945,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="6">
-        <f t="shared" ref="N133:N156" si="29">(D133+B133)*1704</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -3963,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="N134:N157" si="29">(D134+B134)*1704</f>
         <v>0</v>
       </c>
     </row>
@@ -4275,7 +4305,7 @@
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D152">
-        <f t="shared" ref="D152:D156" si="30">C152/60</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G152">
@@ -4293,7 +4323,7 @@
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.15">
       <c r="D153">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D153:D157" si="30">C153/60</f>
         <v>0</v>
       </c>
       <c r="G153">
@@ -4359,6 +4389,24 @@
         <v>0</v>
       </c>
       <c r="N156" s="6">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="D157">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N157" s="6">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,14 +1073,14 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>44.35</v>
+        <v>51.966666666666669</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>210.08333333333334</v>
+        <v>217.70000000000002</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>80610.800000000017</v>
+        <v>94176.083333333358</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>210.08333333333334</v>
+        <v>217.70000000000002</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>370198.01666666672</v>
+        <v>383763.30000000005</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,14 +1073,14 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>51.966666666666669</v>
+        <v>54.216666666666669</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>217.70000000000002</v>
+        <v>219.95000000000002</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>94176.083333333358</v>
+        <v>98183.333333333358</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>217.70000000000002</v>
+        <v>219.95000000000002</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>383763.30000000005</v>
+        <v>387770.55000000005</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,14 +1073,14 @@
         <v>42583</v>
       </c>
       <c r="B13">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1104,18 +1104,18 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>54.216666666666669</v>
+        <v>56.716666666666669</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="5"/>
-        <v>219.95000000000002</v>
+        <v>222.45000000000002</v>
       </c>
       <c r="M13">
         <v>1370</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>98183.333333333358</v>
+        <v>102635.83333333336</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>219.95000000000002</v>
+        <v>222.45000000000002</v>
       </c>
       <c r="M14">
         <v>1370</v>
@@ -1159,7 +1159,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>387770.55000000005</v>
+        <v>392223.05000000005</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="28035" windowHeight="12060"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="28035" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1122,9 +1122,15 @@
       <c r="A14" s="3">
         <v>42614</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1136,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>222.45000000000002</v>
+        <v>223.86666666666667</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>0</v>
+        <v>2523.0833333333335</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1159,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>392223.05000000005</v>
+        <v>394746.13333333336</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>1.4166666666666667</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>223.86666666666667</v>
+        <v>225.81666666666669</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>2523.0833333333335</v>
+        <v>5996.0333333333328</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>394746.13333333336</v>
+        <v>398219.08333333337</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>3.3666666666666667</v>
+        <v>4.6166666666666671</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>225.81666666666669</v>
+        <v>227.06666666666669</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>5996.0333333333328</v>
+        <v>8222.2833333333347</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>398219.08333333337</v>
+        <v>400445.33333333337</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>4.6166666666666671</v>
+        <v>6.1166666666666663</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>227.06666666666669</v>
+        <v>228.56666666666669</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>8222.2833333333347</v>
+        <v>10893.783333333333</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>400445.33333333337</v>
+        <v>403116.83333333337</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="28035" windowHeight="12045"/>
+    <workbookView xWindow="360" yWindow="195" windowWidth="28035" windowHeight="12030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.11666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>6.1166666666666663</v>
+        <v>7.7</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>228.56666666666669</v>
+        <v>230.15</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>10893.783333333333</v>
+        <v>13713.7</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>403116.83333333337</v>
+        <v>405936.75000000006</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.05</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>7.7</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>230.15</v>
+        <v>231.50000000000003</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>13713.7</v>
+        <v>16118.050000000003</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>405936.75000000006</v>
+        <v>408341.10000000003</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1123,7 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>9.0500000000000007</v>
+        <v>11.05</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>231.50000000000003</v>
+        <v>233.50000000000003</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>16118.050000000003</v>
+        <v>19680.050000000003</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>408341.10000000003</v>
+        <v>411903.10000000003</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:P157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>11.05</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>233.50000000000003</v>
+        <v>236.28333333333336</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>19680.050000000003</v>
+        <v>24637.166666666668</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>411903.10000000003</v>
+        <v>416860.21666666673</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">

--- a/overtime.xlsx
+++ b/overtime.xlsx
@@ -1123,14 +1123,14 @@
         <v>42614</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.68333333333333335</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="1"/>
@@ -1142,18 +1142,18 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>13.833333333333334</v>
+        <v>18.683333333333334</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="5"/>
-        <v>236.28333333333336</v>
+        <v>241.13333333333335</v>
       </c>
       <c r="M14">
         <v>1370</v>
       </c>
       <c r="N14" s="6">
         <f>K14*M14*1.3+(E14+G14)*M14*0.25+(H14+J14)*M14*0.05</f>
-        <v>24637.166666666668</v>
+        <v>33275.01666666667</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1165,7 +1165,7 @@
       <c r="L15" s="1"/>
       <c r="N15" s="6">
         <f>SUM(N3:N14)</f>
-        <v>416860.21666666673</v>
+        <v>425498.06666666671</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
